--- a/Team27_RougeLike/Team27_RougeLike/Team27_RougeLikeContent/PlayerCSV/PlayerStatus.xlsx
+++ b/Team27_RougeLike/Team27_RougeLike/Team27_RougeLikeContent/PlayerCSV/PlayerStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,9 +377,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -413,7 +413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
